--- a/biology/Botanique/Polytrichum_piliferum/Polytrichum_piliferum.xlsx
+++ b/biology/Botanique/Polytrichum_piliferum/Polytrichum_piliferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polytrichum piliferum est une espèce de mousse de la famille des Polytrichaceae, présente sur tous les continents[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polytrichum piliferum est une espèce de mousse de la famille des Polytrichaceae, présente sur tous les continents.
 </t>
         </is>
       </c>
@@ -511,16 +523,124 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une mousse acrocarpe, qui forme des tapis denses, composés de tiges allant jusqu'à 4 cm.
-Gamétophyte
-Les feuilles sont linéaire-lancéolée, de 3 mm de long. Elles se terminent par un long poil blanc. Elles sont composées d'une base hyaline, d'une large nervure qui occupe presque toute la feuille, et de quelques rangées de cellules de limbe sur les bords[3],[4],[5]. Comme chez tous les Polytrichum la nervure est couverte de rangées de lamelles chlorophylliennes, facilitant la photosynthèse[6].
-Les anthéridies sont portées dans des corbeilles composées par des feuilles modifiées de couleur rouge[5].
-Sporophyte
-L'espèce est dioïque. Les capsules rectangulaires possèdent 4 à 5 côtés, et sont portées par une soie de 1 à 3 cm de haut. La coiffe est velue, et l'opercule est rostré[5].
-Identification
-Les feuilles sont entières, et se terminent par un long poil blanc, ce qui est unique dans ce genre.Polytrichum juniperinum lu ressemble, mais le poil au bout de la feuille est bruns et non blanc[4]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gamétophyte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont linéaire-lancéolée, de 3 mm de long. Elles se terminent par un long poil blanc. Elles sont composées d'une base hyaline, d'une large nervure qui occupe presque toute la feuille, et de quelques rangées de cellules de limbe sur les bords. Comme chez tous les Polytrichum la nervure est couverte de rangées de lamelles chlorophylliennes, facilitant la photosynthèse.
+Les anthéridies sont portées dans des corbeilles composées par des feuilles modifiées de couleur rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sporophyte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est dioïque. Les capsules rectangulaires possèdent 4 à 5 côtés, et sont portées par une soie de 1 à 3 cm de haut. La coiffe est velue, et l'opercule est rostré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les feuilles sont entières, et se terminent par un long poil blanc, ce qui est unique dans ce genre.Polytrichum juniperinum lu ressemble, mais le poil au bout de la feuille est bruns et non blanc. 
 			Colonie de Polytrichum piliferum, avec des sporophytes et les corbeilles rouges qui portent les anthéridies.
 			Polytrichum piliferum, avec les poils blancs bien visibles.
 			Feuilles de Polytrichum piliferum, avec la base hyaline, la nervure opaque qui occupe presque toute la feuille, et le poil blanc qui dépasse.
@@ -530,96 +650,102 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution et menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente sur tous les continents, et partout en France métropolitaine, ainsi qu'à la Réunion et Saint-Pierre-et-Miquelon[2]. Elle n'est pas menacée en Europe, ni dans aucune des régions de France où elle a été évaluée[7],[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente sur tous les continents, et partout en France métropolitaine, ainsi qu'à la Réunion et Saint-Pierre-et-Miquelon. Elle n'est pas menacée en Europe, ni dans aucune des régions de France où elle a été évaluée,.
 Elle est déterminante ZNIEFF dans la région Hauts-de-France.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce des milieux secs, acides et ensoleillés. Elle se développe sur les sols sableux, les graviers, les rochers ou d'autres substrats filtrants[4],[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce des milieux secs, acides et ensoleillés. Elle se développe sur les sols sableux, les graviers, les rochers ou d'autres substrats filtrants,.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_piliferum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Voici la liste des sous-espèces et variétés selon Tropicos                                           (13 juillet 2017)[9] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voici la liste des sous-espèces et variétés selon Tropicos                                           (13 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Polytrichum piliferum mut psilocorys J. Heimans
 sous-espèce Polytrichum piliferum subsp. hyperboreum (R. Br.) Albr. Rohn.
 variété Polytrichum piliferum var. aequinoctaile Lorentz
